--- a/HRMS/DashBoard Display Information (CMS)/TrnTenderOrder.xlsx
+++ b/HRMS/DashBoard Display Information (CMS)/TrnTenderOrder.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="74">
   <si>
     <t>Table Name -TrnTenderOrder</t>
   </si>
@@ -170,13 +170,79 @@
   </si>
   <si>
     <t>TenderCancellationFile</t>
+  </si>
+  <si>
+    <t>Primary id for auto increatment.</t>
+  </si>
+  <si>
+    <t>For active or inactive record.</t>
+  </si>
+  <si>
+    <t>Get Login UserId .</t>
+  </si>
+  <si>
+    <t>Get Current Datetime when user Insert Record.</t>
+  </si>
+  <si>
+    <t>Keep IP Address of User System.</t>
+  </si>
+  <si>
+    <t>Get Current Datetime when user Update Record.</t>
+  </si>
+  <si>
+    <t>Get CurrentIP when user Update Record.</t>
+  </si>
+  <si>
+    <t>Get Login UserUd when User Update Record By IP Address.</t>
+  </si>
+  <si>
+    <t>Take OrderTitle as String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get OfficeId  (MstOIS) in Numaric </t>
+  </si>
+  <si>
+    <t>Take OfficeAddress as String.</t>
+  </si>
+  <si>
+    <t>Take RefNo as String.</t>
+  </si>
+  <si>
+    <t>Take Name as String.</t>
+  </si>
+  <si>
+    <t>Take input as date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get TenderTypeid  (TenderType) in Numaric </t>
+  </si>
+  <si>
+    <t>Take Tender Title  as String.</t>
+  </si>
+  <si>
+    <t>Take ImagePath as String.</t>
+  </si>
+  <si>
+    <t>Take Mobile No.  as String.</t>
+  </si>
+  <si>
+    <t>Take Emailid   as String.</t>
+  </si>
+  <si>
+    <t>Take WorkDescription  as String.</t>
+  </si>
+  <si>
+    <t>Take EMD  Value as Decimal</t>
+  </si>
+  <si>
+    <t>Take DocumentCost  Value as Decimal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,13 +257,25 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -227,14 +305,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -244,6 +316,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,7 +637,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,506 +646,554 @@
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="40.5703125" customWidth="1"/>
+    <col min="6" max="6" width="61.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="9" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="9" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="11" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="11" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="9" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="9" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="D13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="9" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="D14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="D15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="D16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="4">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="D17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <v>14</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="D18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="9" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="D19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="4">
         <v>16</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="D20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="D21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="9" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>18</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="9" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>19</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="D23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="D24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25" s="4">
         <v>21</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="D25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="9" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="4">
         <v>22</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="D26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="4">
         <v>23</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="D27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="A28" s="4">
         <v>24</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="D28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="A29" s="4">
         <v>25</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="D29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="9" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="A30" s="4">
         <v>26</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="D30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="A31" s="4">
         <v>27</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="D31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+      <c r="A32" s="4">
         <v>28</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="D32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/HRMS/DashBoard Display Information (CMS)/TrnTenderOrder.xlsx
+++ b/HRMS/DashBoard Display Information (CMS)/TrnTenderOrder.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
   <si>
     <t>Table Name -TrnTenderOrder</t>
   </si>
@@ -187,15 +187,6 @@
     <t>Keep IP Address of User System.</t>
   </si>
   <si>
-    <t>Get Current Datetime when user Update Record.</t>
-  </si>
-  <si>
-    <t>Get CurrentIP when user Update Record.</t>
-  </si>
-  <si>
-    <t>Get Login UserUd when User Update Record By IP Address.</t>
-  </si>
-  <si>
     <t>Take OrderTitle as String.</t>
   </si>
   <si>
@@ -236,6 +227,9 @@
   </si>
   <si>
     <t>Take DocumentCost  Value as Decimal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Districtid  (MstDistrict) in Numaric </t>
   </si>
 </sst>
 </file>
@@ -316,6 +310,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -323,12 +318,13 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,37 +643,38 @@
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="61.140625" customWidth="1"/>
+    <col min="10" max="10" width="51.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -696,8 +693,9 @@
       <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -713,15 +711,16 @@
       <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -732,10 +731,11 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -750,10 +750,11 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -767,11 +768,12 @@
         <v>13</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -785,11 +787,12 @@
         <v>13</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -804,14 +807,15 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -822,10 +826,10 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -840,10 +844,10 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -858,10 +862,10 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -876,10 +880,10 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>11</v>
       </c>
@@ -894,10 +898,10 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>12</v>
       </c>
@@ -911,9 +915,9 @@
         <v>13</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>13</v>
       </c>
@@ -928,10 +932,10 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>14</v>
       </c>
@@ -946,10 +950,10 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>15</v>
       </c>
@@ -964,10 +968,10 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>16</v>
       </c>
@@ -982,10 +986,10 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>17</v>
       </c>
@@ -1000,10 +1004,10 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>18</v>
       </c>
@@ -1021,7 +1025,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -1039,7 +1043,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>20</v>
       </c>
@@ -1057,7 +1061,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>21</v>
       </c>
@@ -1075,7 +1079,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>22</v>
       </c>
@@ -1090,10 +1094,11 @@
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>23</v>
       </c>
@@ -1108,10 +1113,11 @@
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>24</v>
       </c>
@@ -1125,11 +1131,12 @@
         <v>13</v>
       </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>25</v>
       </c>
@@ -1144,10 +1151,10 @@
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>26</v>
       </c>
@@ -1161,9 +1168,11 @@
         <v>13</v>
       </c>
       <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>27</v>
       </c>
@@ -1177,9 +1186,11 @@
         <v>13</v>
       </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>28</v>
       </c>
@@ -1193,7 +1204,9 @@
         <v>13</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="F32" s="9" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/HRMS/DashBoard Display Information (CMS)/TrnTenderOrder.xlsx
+++ b/HRMS/DashBoard Display Information (CMS)/TrnTenderOrder.xlsx
@@ -311,12 +311,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -325,6 +319,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,7 +633,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,32 +647,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -693,7 +693,7 @@
       <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="9"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -711,10 +711,10 @@
       <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="9"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -730,10 +730,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -749,10 +749,10 @@
         <v>16</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="9"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -768,10 +768,10 @@
         <v>13</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="J8" s="9"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -787,7 +787,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>62</v>
       </c>
       <c r="J9" s="5"/>
@@ -806,7 +806,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
       <c r="J10" s="5"/>
@@ -825,7 +825,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -843,7 +843,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="7" t="s">
         <v>64</v>
       </c>
     </row>
@@ -861,7 +861,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -879,7 +879,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="7" t="s">
         <v>70</v>
       </c>
     </row>
@@ -897,7 +897,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -915,7 +915,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="11"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -931,7 +931,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="7" t="s">
         <v>61</v>
       </c>
     </row>
@@ -949,7 +949,7 @@
         <v>13</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="7" t="s">
         <v>67</v>
       </c>
     </row>
@@ -967,7 +967,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -985,7 +985,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1003,7 +1003,7 @@
         <v>13</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
         <v>16</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="7" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
         <v>13</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
         <v>13</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1093,10 +1093,10 @@
         <v>13</v>
       </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="9"/>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
@@ -1112,10 +1112,10 @@
         <v>13</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H27" s="9"/>
+      <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
@@ -1131,10 +1131,10 @@
         <v>13</v>
       </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H28" s="9"/>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
@@ -1150,7 +1150,7 @@
         <v>13</v>
       </c>
       <c r="E29" s="5"/>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1168,7 +1168,7 @@
         <v>13</v>
       </c>
       <c r="E30" s="5"/>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="7" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
         <v>13</v>
       </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="7" t="s">
         <v>65</v>
       </c>
     </row>

--- a/HRMS/DashBoard Display Information (CMS)/TrnTenderOrder.xlsx
+++ b/HRMS/DashBoard Display Information (CMS)/TrnTenderOrder.xlsx
@@ -633,7 +633,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HRMS/DashBoard Display Information (CMS)/TrnTenderOrder.xlsx
+++ b/HRMS/DashBoard Display Information (CMS)/TrnTenderOrder.xlsx
@@ -633,7 +633,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HRMS/DashBoard Display Information (CMS)/TrnTenderOrder.xlsx
+++ b/HRMS/DashBoard Display Information (CMS)/TrnTenderOrder.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
   <si>
     <t>Table Name -TrnTenderOrder</t>
   </si>
@@ -187,9 +187,6 @@
     <t>Keep IP Address of User System.</t>
   </si>
   <si>
-    <t>Take OrderTitle as String.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Get OfficeId  (MstOIS) in Numaric </t>
   </si>
   <si>
@@ -230,13 +227,19 @@
   </si>
   <si>
     <t xml:space="preserve">Get Districtid  (MstDistrict) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get DistrictId  (MstDistrict) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: The Green-colored column is donated as dependent table </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +260,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -272,7 +283,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -295,11 +306,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -317,14 +365,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -630,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,32 +701,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -731,7 +785,7 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J6" s="7"/>
     </row>
@@ -750,7 +804,7 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J7" s="7"/>
     </row>
@@ -769,7 +823,7 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J8" s="7"/>
     </row>
@@ -788,7 +842,7 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J9" s="5"/>
     </row>
@@ -807,7 +861,7 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="5"/>
     </row>
@@ -826,7 +880,7 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -844,7 +898,7 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -862,7 +916,7 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -880,7 +934,7 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -898,7 +952,7 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -915,7 +969,9 @@
         <v>13</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="9"/>
+      <c r="F16" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -932,7 +988,7 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -950,7 +1006,7 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -968,7 +1024,7 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -986,7 +1042,7 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1004,7 +1060,7 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1140,7 +1196,7 @@
       <c r="A29" s="4">
         <v>25</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1151,14 +1207,14 @@
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="7" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>26</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -1169,7 +1225,7 @@
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1187,7 +1243,7 @@
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1205,13 +1261,24 @@
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="7" t="s">
-        <v>65</v>
-      </c>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F3"/>
+    <mergeCell ref="A33:F33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HRMS/DashBoard Display Information (CMS)/TrnTenderOrder.xlsx
+++ b/HRMS/DashBoard Display Information (CMS)/TrnTenderOrder.xlsx
@@ -19,9 +19,6 @@
     <t>Table Name -TrnTenderOrder</t>
   </si>
   <si>
-    <t xml:space="preserve">Defination : </t>
-  </si>
-  <si>
     <t>S.No.</t>
   </si>
   <si>
@@ -233,6 +230,10 @@
   </si>
   <si>
     <t xml:space="preserve">Note: The Green-colored column is donated as dependent table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defination : :  नाये Tender आदेश को रजिस्टर्ड किया जाता है|
+</t>
   </si>
 </sst>
 </file>
@@ -687,7 +688,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,7 +713,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -730,22 +731,22 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="J4" s="7"/>
     </row>
@@ -754,19 +755,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J5" s="7"/>
     </row>
@@ -775,17 +776,17 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J6" s="7"/>
     </row>
@@ -794,17 +795,17 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J7" s="7"/>
     </row>
@@ -813,17 +814,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J8" s="7"/>
     </row>
@@ -832,17 +833,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J9" s="5"/>
     </row>
@@ -851,17 +852,17 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J10" s="5"/>
     </row>
@@ -870,17 +871,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -888,17 +889,17 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -906,17 +907,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -924,17 +925,17 @@
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -942,17 +943,17 @@
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="D15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -960,17 +961,17 @@
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -978,17 +979,17 @@
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -996,17 +997,17 @@
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="D18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1014,17 +1015,17 @@
         <v>15</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="D19" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1032,17 +1033,17 @@
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="D20" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1050,17 +1051,17 @@
         <v>17</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1068,17 +1069,17 @@
         <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="D22" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1086,17 +1087,17 @@
         <v>19</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1104,17 +1105,17 @@
         <v>20</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1122,17 +1123,17 @@
         <v>21</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1140,17 +1141,17 @@
         <v>22</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H26" s="7"/>
     </row>
@@ -1159,17 +1160,17 @@
         <v>23</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H27" s="7"/>
     </row>
@@ -1178,17 +1179,17 @@
         <v>24</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H28" s="7"/>
     </row>
@@ -1197,17 +1198,17 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1215,17 +1216,17 @@
         <v>26</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1233,17 +1234,17 @@
         <v>27</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1251,22 +1252,22 @@
         <v>28</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
